--- a/FMQ.xlsx
+++ b/FMQ.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11238" uniqueCount="9107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11294" uniqueCount="9153">
   <si>
     <t>Orange = regional copyright</t>
   </si>
@@ -27433,6 +27433,144 @@
   </si>
   <si>
     <t>I Wanna be the Ultimatum;I Wanna be the END;I Wanna be the Popularity;I Wanna be the Tempest;I Wanna be the Butterfly;I Wanna be the Nosieesi</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N1IWNKxz_vQ</t>
+  </si>
+  <si>
+    <t>Intro (official instrumental)</t>
+  </si>
+  <si>
+    <t>Michael Tavera</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2VYucM6kTSk</t>
+  </si>
+  <si>
+    <t>Intro Music</t>
+  </si>
+  <si>
+    <t>Sonic Adventure 8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Yzivg8gmrCE</t>
+  </si>
+  <si>
+    <t>Squilliam shawty like a melody but it's looped</t>
+  </si>
+  <si>
+    <t>Squilliam</t>
+  </si>
+  <si>
+    <t>Find Pou / Memory</t>
+  </si>
+  <si>
+    <t>Pou</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l2EYeyYfAyo</t>
+  </si>
+  <si>
+    <t>https://youtu.be/O07SX0BliAQ?si=U15LAsJDgH220Gkc&amp;t=159</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>NightHawk22</t>
+  </si>
+  <si>
+    <t>Clavar La Espada</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=suwfJMiXauU</t>
+  </si>
+  <si>
+    <t>Another Bad Barrage;Another Bad Barrage 2</t>
+  </si>
+  <si>
+    <t>demonic little grey cat theme song</t>
+  </si>
+  <si>
+    <t>https://youtu.be/-vJ0NMOH2vA?si=ebLByXkwpdcUBCjB&amp;t=27</t>
+  </si>
+  <si>
+    <t>vivivivivi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hv_BaEemLcs?si=zxljW3LQKEEeM3Oh&amp;t=156</t>
+  </si>
+  <si>
+    <t>Another Bad Barrage 2</t>
+  </si>
+  <si>
+    <t>Demonic Little Grey Cat Theme Phase 2</t>
+  </si>
+  <si>
+    <t>Xhitest</t>
+  </si>
+  <si>
+    <t>Nova Sidus (Chiptune Mix)</t>
+  </si>
+  <si>
+    <t>NeXsard</t>
+  </si>
+  <si>
+    <t>I Wanna KamiKamiKami</t>
+  </si>
+  <si>
+    <t>https://youtu.be/vbtZaqXKLGU?si=CHo_AOGQE5lDkPbw&amp;t=191</t>
+  </si>
+  <si>
+    <t>Let the bodies hit the floor - repotente ver.</t>
+  </si>
+  <si>
+    <t>Mauricio Juega IWBT</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bMobpo9LHtM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mTLbTp9nogE</t>
+  </si>
+  <si>
+    <t>I Wanna Look Tomodati</t>
+  </si>
+  <si>
+    <t>Coast 1</t>
+  </si>
+  <si>
+    <t>TrackMania Wii</t>
+  </si>
+  <si>
+    <t>Sneaky Adventure</t>
+  </si>
+  <si>
+    <t>I wanna be the MIL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2SppruC0G5k</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NBaudy5ck0Y?si=VcExPq-vmuBv2dMT&amp;t=3</t>
+  </si>
+  <si>
+    <t>Mr Incredible Becoming Canny</t>
+  </si>
+  <si>
+    <t>Mr Incredible</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EcSe_9qEoUI?si=lxnzSSJtSXp-PonY&amp;t=113</t>
+  </si>
+  <si>
+    <t>I Wanna Be The Mesmerizer (AU)</t>
+  </si>
+  <si>
+    <t>(ALTERNATIVE UNIVERSE)【初音ミク】メズマライザー【オリジナル】</t>
+  </si>
+  <si>
+    <t>Reroy_.</t>
   </si>
 </sst>
 </file>
@@ -27979,10 +28117,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G2812"/>
+  <dimension ref="A1:G2826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A2806" workbookViewId="0">
+      <selection activeCell="D2826" sqref="D2826"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -67343,10 +67481,215 @@
       </c>
     </row>
     <row r="2812" spans="1:7" ht="12.75">
-      <c r="A2812" s="51"/>
-      <c r="B2812" s="55"/>
-      <c r="C2812" s="55"/>
-      <c r="D2812" s="55"/>
+      <c r="A2812" s="57" t="s">
+        <v>9107</v>
+      </c>
+      <c r="B2812" s="55" t="s">
+        <v>9103</v>
+      </c>
+      <c r="C2812" s="55" t="s">
+        <v>9108</v>
+      </c>
+      <c r="D2812" s="55" t="s">
+        <v>9109</v>
+      </c>
+      <c r="E2812" s="55"/>
+      <c r="F2812" s="55"/>
+      <c r="G2812" s="56"/>
+    </row>
+    <row r="2813" spans="1:7" ht="12.75">
+      <c r="A2813" s="57" t="s">
+        <v>9110</v>
+      </c>
+      <c r="B2813" s="55" t="s">
+        <v>9103</v>
+      </c>
+      <c r="C2813" s="55" t="s">
+        <v>9111</v>
+      </c>
+      <c r="D2813" s="55" t="s">
+        <v>9112</v>
+      </c>
+      <c r="E2813" s="55"/>
+      <c r="F2813" s="55"/>
+      <c r="G2813" s="56"/>
+    </row>
+    <row r="2814" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A2814" s="57" t="s">
+        <v>9118</v>
+      </c>
+      <c r="B2814" s="55" t="s">
+        <v>9103</v>
+      </c>
+      <c r="C2814" s="55" t="s">
+        <v>9116</v>
+      </c>
+      <c r="D2814" s="55" t="s">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="2815" spans="1:7" ht="12.75">
+      <c r="A2815" s="57" t="s">
+        <v>9113</v>
+      </c>
+      <c r="B2815" s="55" t="s">
+        <v>9103</v>
+      </c>
+      <c r="C2815" s="55" t="s">
+        <v>9114</v>
+      </c>
+      <c r="D2815" s="55" t="s">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="2816" spans="1:7" ht="12.75">
+      <c r="A2816" s="57" t="s">
+        <v>9119</v>
+      </c>
+      <c r="B2816" s="55" t="s">
+        <v>9103</v>
+      </c>
+      <c r="C2816" s="55" t="s">
+        <v>9120</v>
+      </c>
+      <c r="D2816" s="55" t="s">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="2817" spans="1:7" ht="12.75">
+      <c r="A2817" s="57" t="s">
+        <v>9123</v>
+      </c>
+      <c r="B2817" s="55" t="s">
+        <v>9103</v>
+      </c>
+      <c r="C2817" s="55" t="s">
+        <v>9122</v>
+      </c>
+      <c r="D2817" s="55" t="s">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="2818" spans="1:7" ht="12.75">
+      <c r="A2818" s="57" t="s">
+        <v>9126</v>
+      </c>
+      <c r="B2818" s="55" t="s">
+        <v>9124</v>
+      </c>
+      <c r="C2818" s="55" t="s">
+        <v>9125</v>
+      </c>
+      <c r="D2818" s="55" t="s">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="2819" spans="1:7" ht="12.75">
+      <c r="A2819" s="57" t="s">
+        <v>9128</v>
+      </c>
+      <c r="B2819" s="55" t="s">
+        <v>9129</v>
+      </c>
+      <c r="C2819" s="55" t="s">
+        <v>9130</v>
+      </c>
+      <c r="D2819" s="55" t="s">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="2820" spans="1:7" ht="12.75">
+      <c r="A2820" s="57" t="s">
+        <v>9135</v>
+      </c>
+      <c r="B2820" s="55" t="s">
+        <v>9134</v>
+      </c>
+      <c r="C2820" s="55" t="s">
+        <v>9132</v>
+      </c>
+      <c r="D2820" s="55" t="s">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="2821" spans="1:7" ht="12.75">
+      <c r="A2821" s="57" t="s">
+        <v>9138</v>
+      </c>
+      <c r="B2821" s="55" t="s">
+        <v>9134</v>
+      </c>
+      <c r="C2821" s="55" t="s">
+        <v>9136</v>
+      </c>
+      <c r="D2821" s="55" t="s">
+        <v>9137</v>
+      </c>
+    </row>
+    <row r="2822" spans="1:7" ht="12.75">
+      <c r="A2822" s="57" t="s">
+        <v>9139</v>
+      </c>
+      <c r="B2822" s="55" t="s">
+        <v>9140</v>
+      </c>
+      <c r="C2822" s="55" t="s">
+        <v>9141</v>
+      </c>
+      <c r="D2822" s="55" t="s">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="2823" spans="1:7" ht="12.75">
+      <c r="A2823" s="57" t="s">
+        <v>9146</v>
+      </c>
+      <c r="B2823" s="55" t="s">
+        <v>9144</v>
+      </c>
+      <c r="C2823" s="55" t="s">
+        <v>9147</v>
+      </c>
+      <c r="D2823" s="55" t="s">
+        <v>9148</v>
+      </c>
+    </row>
+    <row r="2824" spans="1:7" ht="12.75">
+      <c r="A2824" s="57" t="s">
+        <v>9145</v>
+      </c>
+      <c r="B2824" s="55" t="s">
+        <v>9144</v>
+      </c>
+      <c r="C2824" s="55" t="s">
+        <v>9143</v>
+      </c>
+      <c r="D2824" s="55" t="s">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="2825" spans="1:7" ht="12.75">
+      <c r="A2825" s="57" t="s">
+        <v>9149</v>
+      </c>
+      <c r="B2825" s="55" t="s">
+        <v>9150</v>
+      </c>
+      <c r="C2825" s="55" t="s">
+        <v>9151</v>
+      </c>
+      <c r="D2825" s="55" t="s">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="2826" spans="1:7" ht="12.75">
+      <c r="A2826" s="57"/>
+      <c r="B2826" s="55"/>
+      <c r="C2826" s="55"/>
+      <c r="D2826" s="55"/>
+      <c r="E2826" s="55"/>
+      <c r="F2826" s="55"/>
+      <c r="G2826" s="56"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -70168,9 +70511,23 @@
     <hyperlink ref="A2811" r:id="rId2816"/>
     <hyperlink ref="A2809" r:id="rId2817" display="https://youtu.be/kTpMbvBT68M?si=7BnbN5kYn1E53QhI&amp;t=70"/>
     <hyperlink ref="A2810" r:id="rId2818"/>
+    <hyperlink ref="A2812" r:id="rId2819"/>
+    <hyperlink ref="A2813" r:id="rId2820"/>
+    <hyperlink ref="A2815" r:id="rId2821"/>
+    <hyperlink ref="A2814" r:id="rId2822"/>
+    <hyperlink ref="A2816" r:id="rId2823"/>
+    <hyperlink ref="A2817" r:id="rId2824"/>
+    <hyperlink ref="A2818" r:id="rId2825"/>
+    <hyperlink ref="A2819" r:id="rId2826"/>
+    <hyperlink ref="A2820" r:id="rId2827"/>
+    <hyperlink ref="A2821" r:id="rId2828"/>
+    <hyperlink ref="A2822" r:id="rId2829"/>
+    <hyperlink ref="A2823" r:id="rId2830"/>
+    <hyperlink ref="A2824" r:id="rId2831"/>
+    <hyperlink ref="A2825" r:id="rId2832"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2819"/>
-  <legacyDrawing r:id="rId2820"/>
+  <pageSetup orientation="portrait" r:id="rId2833"/>
+  <legacyDrawing r:id="rId2834"/>
 </worksheet>
 </file>